--- a/DATA_SET_SOLUTION/NormalFormSolution.xlsx
+++ b/DATA_SET_SOLUTION/NormalFormSolution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/virendrac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/virendrac/Training/DATA_SET_SOLUTION/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
   <si>
     <t xml:space="preserve">EmployeeID </t>
   </si>
@@ -225,6 +225,57 @@
   </si>
   <si>
     <t>DATA_TABLE</t>
+  </si>
+  <si>
+    <t>3NF</t>
+  </si>
+  <si>
+    <t>ZIPCODE</t>
+  </si>
+  <si>
+    <t>ZIPCODE_TABLE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE_PROVINCE</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>PERMANENT_Address_ID</t>
+  </si>
+  <si>
+    <t>POSTAL_Address_ID</t>
+  </si>
+  <si>
+    <t>ADDRESS_TABLE</t>
+  </si>
+  <si>
+    <t>BU_Address_ID</t>
+  </si>
+  <si>
+    <t>Address_Locality</t>
+  </si>
+  <si>
+    <t>Address_Street</t>
+  </si>
+  <si>
+    <t>Address_CITY</t>
+  </si>
+  <si>
+    <t>Address_STATE_Province</t>
+  </si>
+  <si>
+    <t>Address_COUNTRY</t>
+  </si>
+  <si>
+    <t>Address_ZIPCODE</t>
+  </si>
+  <si>
+    <t>AADHAR_DETAIL_TABLE</t>
   </si>
 </sst>
 </file>
@@ -292,8 +343,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -353,6 +452,30 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -370,6 +493,30 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,6 +806,9 @@
     <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -901,22 +1051,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
@@ -938,8 +1088,11 @@
       <c r="L63" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N63" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -961,8 +1114,11 @@
       <c r="L64" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -984,13 +1140,16 @@
       <c r="L65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -1007,14 +1166,14 @@
       <c r="L66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B67" t="s">
-        <v>21</v>
-      </c>
       <c r="D67" t="s">
         <v>19</v>
       </c>
@@ -1030,14 +1189,14 @@
       <c r="L67" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
       <c r="D68" t="s">
         <v>3</v>
       </c>
@@ -1050,98 +1209,264 @@
       <c r="L68" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" t="s">
-        <v>20</v>
+      <c r="D69" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H69" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
-      <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" t="s">
-        <v>21</v>
+      <c r="D70" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>36</v>
       </c>
-      <c r="B71" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" t="s">
-        <v>22</v>
-      </c>
       <c r="H71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
-      <c r="D72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>42</v>
       </c>
-      <c r="D73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
-        <v>31</v>
+    </row>
+    <row r="86" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>52</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P88" t="s">
+        <v>67</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>60</v>
+      </c>
+      <c r="N89" t="s">
+        <v>76</v>
+      </c>
+      <c r="P89" t="s">
+        <v>69</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+      <c r="L90" t="s">
+        <v>63</v>
+      </c>
+      <c r="N90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P90" t="s">
+        <v>70</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" t="s">
+        <v>44</v>
+      </c>
+      <c r="L91" t="s">
+        <v>62</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>45</v>
+      </c>
+      <c r="L92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
